--- a/MSE, PSNR and SAD.xlsx
+++ b/MSE, PSNR and SAD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rewillia\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6999CF5-9B60-4733-992C-05DDBDB534EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC3B9DE2-B1C1-411E-B1F5-2E32D38CB73A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AC0B9044-3016-416F-B72B-33AA723991A8}"/>
   </bookViews>
@@ -142,10 +142,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -463,8 +463,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31230EB1-6E1F-4458-9A9D-CB6ACBE54A6F}">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:XFD18"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -479,31 +479,31 @@
     <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -723,32 +723,50 @@
       <c r="A14" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="B14" s="1">
+        <v>8.0263265735886196E-3</v>
+      </c>
+      <c r="C14" s="1">
+        <v>20.954831737546701</v>
+      </c>
+      <c r="D14" s="1">
+        <v>9026.6648758967094</v>
+      </c>
+      <c r="E14" s="1">
+        <v>167.3</v>
+      </c>
+      <c r="F14" s="1">
+        <v>173.64</v>
+      </c>
+      <c r="G14" s="1">
+        <v>92.725543260574298</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+    <row r="20" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="F20" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G20" s="3" t="s">
+      <c r="G20" s="2" t="s">
         <v>3</v>
       </c>
     </row>

--- a/MSE, PSNR and SAD.xlsx
+++ b/MSE, PSNR and SAD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rewillia\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC3B9DE2-B1C1-411E-B1F5-2E32D38CB73A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2F30F062-14B3-4216-BEC7-E99CA443603B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AC0B9044-3016-416F-B72B-33AA723991A8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>MSE</t>
   </si>
@@ -77,9 +77,6 @@
     <t xml:space="preserve">Image </t>
   </si>
   <si>
-    <t>High Resolution Images</t>
-  </si>
-  <si>
     <t>GT07</t>
   </si>
   <si>
@@ -87,9 +84,6 @@
   </si>
   <si>
     <t>GT09</t>
-  </si>
-  <si>
-    <t>GT10</t>
   </si>
   <si>
     <t>GT11</t>
@@ -461,10 +455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31230EB1-6E1F-4458-9A9D-CB6ACBE54A6F}">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -647,7 +641,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10" s="1">
         <v>2.6963116368519998E-3</v>
@@ -670,7 +664,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11" s="1">
         <v>2.41637117337671E-2</v>
@@ -693,7 +687,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12" s="1">
         <v>4.3780300623755698E-3</v>
@@ -716,114 +710,33 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="1">
+        <v>16</v>
+      </c>
+      <c r="B13" s="1">
         <v>8.0263265735886196E-3</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C13" s="1">
         <v>20.954831737546701</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D13" s="1">
         <v>9026.6648758967094</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E13" s="1">
         <v>167.3</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F13" s="1">
         <v>173.64</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G13" s="1">
         <v>92.725543260574298</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
+    <row r="17" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:XFD1"/>
-    <mergeCell ref="A18:XFD18"/>
+    <mergeCell ref="A17:XFD17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
